--- a/biology/Biochimie/Saccharopine/Saccharopine.xlsx
+++ b/biology/Biochimie/Saccharopine/Saccharopine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La saccharopine (Sacc) est un composé chimique de formule HOOC–HN(NH2)–CH2–CH2–NH–CH(COOH)–CH2–CH2–COOH. C'est un acide tricarboxylique résultant de la condensation d'une molécule de lysine avec une molécule d'α-cétoglutarate par une saccharopine déshydrogénase (EC 1.5.1.7, EC 1.5.1.8, EC 1.5.1.9 ou EC 1.5.1.10). Il s'agit de la première étape de la dégradation de la lysine chez les mammifères et les plantes.
